--- a/biology/Zoologie/Actinostreon_gregareum/Actinostreon_gregareum.xlsx
+++ b/biology/Zoologie/Actinostreon_gregareum/Actinostreon_gregareum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Actinostreon gregareum, anciennement appelée Lopha gregarea Röding, 1798), est une espèce éteinte de mollusques de la famille des ostréidés (huîtres vraies).
 Elle a vécu au cours du Jurassique supérieur à l'Oxfordien, il y a environ 160 Ma (millions d'années).
@@ -512,10 +524,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est connue en Europe, en Arabie, au Pakistan et au Tibet[1].
-En France, on retrouve Lopha gregarea, dans les argiles du site des Falaises des Vaches Noires[2],[3] ainsi que dans la Vallée de la Meuse.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est connue en Europe, en Arabie, au Pakistan et au Tibet.
+En France, on retrouve Lopha gregarea, dans les argiles du site des Falaises des Vaches Noires, ainsi que dans la Vallée de la Meuse.
 </t>
         </is>
       </c>
